--- a/Documentation Source/source/BOMs/electronics bom.xlsx
+++ b/Documentation Source/source/BOMs/electronics bom.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lustiga/Dropbox (HHMI)/Code/karpova_lab/Syringe/Documentation Source/source/BOMs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE24EB9-EC9A-5A46-BCC5-0E710B5BC4F0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D754349-AD2D-804E-9990-713D06C0CFB1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24000" yWindow="13500" windowWidth="38400" windowHeight="23540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,12 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -28,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
   <si>
     <t>link</t>
   </si>
@@ -75,9 +81,6 @@
     <t>ATMEGA32U4</t>
   </si>
   <si>
-    <t>TMC2208</t>
-  </si>
-  <si>
     <t>RJ45 Jack</t>
   </si>
   <si>
@@ -93,15 +96,6 @@
     <t>100 µF capacitor</t>
   </si>
   <si>
-    <t>PJ-036AH-SMT-TR</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/PJ-036AH-SMT-TR/CP-036AHPJCT-ND/1530994/?itemSeq=270013531</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/0855025008/WM3547CT-ND/2405753/?itemSeq=270098995</t>
-  </si>
-  <si>
     <t>ROF-78E3.3-0.5SMD-R</t>
   </si>
   <si>
@@ -123,9 +117,6 @@
     <t>https://www.digikey.com/products/en?keywords=490-1195-1-ND</t>
   </si>
   <si>
-    <t>https://www.digikey.com/product-detail/en/LTST-C170KRKT/160-1415-1-ND/386778/?itemSeq=270114655</t>
-  </si>
-  <si>
     <t>https://www.digikey.com/product-detail/en/nichicon/UCL1V101MCL6GS/493-3953-1-ND/2300380</t>
   </si>
   <si>
@@ -159,51 +150,24 @@
     <t>https://www.digikey.com/products/en?keywords=ATMEGA32U4-AU-ND</t>
   </si>
   <si>
-    <t>https://www.newark.com/trinamic/tmc2208-la-t/motor-driver-stepper-qfn-28/dp/46AC2024</t>
-  </si>
-  <si>
     <t>Newark</t>
   </si>
   <si>
     <t>Mini Color TFT Display</t>
   </si>
   <si>
-    <t>10kΩ Trimpot</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/products/en?keywords=tc33x-103ect</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/products/en?keywords=p19247ct-nd</t>
-  </si>
-  <si>
-    <t>TC33X-2-103E</t>
-  </si>
-  <si>
-    <t>https://oshpark.com/shared_projects/DTkIcOKD</t>
-  </si>
-  <si>
     <t>OSH Park</t>
   </si>
   <si>
-    <t>Syringe Board 2.5</t>
-  </si>
-  <si>
     <t>Printed Circuit Board</t>
   </si>
   <si>
     <t>0.1 µF capacitor (0603)</t>
   </si>
   <si>
-    <t>Red LED (0805)</t>
-  </si>
-  <si>
     <t>10kΩ Resistor (0603)</t>
   </si>
   <si>
-    <t>0.3Ω Resistor (0603)</t>
-  </si>
-  <si>
     <t>https://www.digikey.com/products/en?keywords=399-7969-1</t>
   </si>
   <si>
@@ -244,6 +208,51 @@
   </si>
   <si>
     <t>27Ω</t>
+  </si>
+  <si>
+    <t>Syringe Board 3.0</t>
+  </si>
+  <si>
+    <t>https://oshpark.com/shared_projects/a7P6VJdt</t>
+  </si>
+  <si>
+    <t>TMC2130</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/products/en?keywords=1460-1186-1-ND</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>4.7µF capacitor (0603)</t>
+  </si>
+  <si>
+    <t>470nF capacitor (0603)</t>
+  </si>
+  <si>
+    <t>0.3Ω Resistor (0805)</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/products/en?keywords=CP-037A-ND</t>
+  </si>
+  <si>
+    <t>PJ-037A</t>
+  </si>
+  <si>
+    <t>Red LED (0603)</t>
+  </si>
+  <si>
+    <t>Tactile switch</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/products/en?keywords=SW1440CT-ND</t>
+  </si>
+  <si>
+    <t>B3FS-1010P</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/products/en?keywords=WM3547CT-ND</t>
   </si>
 </sst>
 </file>
@@ -652,10 +661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -706,30 +715,30 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C2" s="5">
-        <v>18.95</v>
+        <v>19.350000000000001</v>
       </c>
       <c r="D2" s="5" t="str">
         <f>CONCATENATE("`",F2," &lt;",G2,"&gt;`_")</f>
-        <v>`Syringe Board 2.5 &lt;https://oshpark.com/shared_projects/DTkIcOKD&gt;`_</v>
+        <v>`Syringe Board 3.0 &lt;https://oshpark.com/shared_projects/a7P6VJdt&gt;`_</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="H2" s="5">
         <v>3</v>
       </c>
       <c r="I2" s="12">
-        <f>C2/H2</f>
-        <v>6.3166666666666664</v>
+        <f t="shared" ref="I2:I20" si="0">C2/H2</f>
+        <v>6.45</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -740,27 +749,27 @@
         <v>9</v>
       </c>
       <c r="C3" s="5">
-        <v>3</v>
+        <v>5.34</v>
       </c>
       <c r="D3" s="5" t="str">
         <f>CONCATENATE("`",F3," &lt;",G3,"&gt;`_")</f>
-        <v>`TMC2208 &lt;https://www.newark.com/trinamic/tmc2208-la-t/motor-driver-stepper-qfn-28/dp/46AC2024&gt;`_</v>
+        <v>`TMC2130 &lt;https://www.digikey.com/products/en?keywords=1460-1186-1-ND&gt;`_</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="H3" s="5">
         <v>1</v>
       </c>
       <c r="I3" s="12">
-        <f>C3/H3</f>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>5.34</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -774,7 +783,7 @@
         <v>4.12</v>
       </c>
       <c r="D4" s="5" t="str">
-        <f t="shared" ref="D4:D8" si="0">CONCATENATE("`",F4," &lt;",G4,"&gt;`_")</f>
+        <f t="shared" ref="D4:D8" si="1">CONCATENATE("`",F4," &lt;",G4,"&gt;`_")</f>
         <v>`ATMEGA32U4 &lt;https://www.digikey.com/products/en?keywords=ATMEGA32U4-AU-ND&gt;`_</v>
       </c>
       <c r="E4" s="5" t="s">
@@ -784,13 +793,13 @@
         <v>14</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H4" s="5">
         <v>1</v>
       </c>
       <c r="I4" s="12">
-        <f>C4/H4</f>
+        <f t="shared" si="0"/>
         <v>4.12</v>
       </c>
     </row>
@@ -799,13 +808,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C5" s="5">
         <v>24.95</v>
       </c>
       <c r="D5" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>`2900 &lt;http://www.digikey.com/products/en?x=0&amp;y=0&amp;lang=en&amp;site=us&amp;keywords=1528-1547-ND&gt;`_</v>
       </c>
       <c r="E5" s="5"/>
@@ -819,7 +828,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="12">
-        <f>C5/H5</f>
+        <f t="shared" si="0"/>
         <v>24.95</v>
       </c>
     </row>
@@ -828,28 +837,28 @@
         <v>1</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="5">
-        <v>1.71</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="D6" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>`PJ-036AH-SMT-TR &lt;https://www.digikey.com/product-detail/en/PJ-036AH-SMT-TR/CP-036AHPJCT-ND/1530994/?itemSeq=270013531&gt;`_</v>
+        <f t="shared" si="1"/>
+        <v>`PJ-037A &lt;https://www.digikey.com/products/en?keywords=CP-037A-ND&gt;`_</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="8" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="H6" s="5">
         <v>1</v>
       </c>
       <c r="I6" s="12">
-        <f>C6/H6</f>
-        <v>1.71</v>
+        <f t="shared" si="0"/>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -857,27 +866,27 @@
         <v>1</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="5">
         <v>1.88</v>
       </c>
       <c r="D7" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>`855025008 &lt;https://www.digikey.com/product-detail/en/0855025008/WM3547CT-ND/2405753/?itemSeq=270098995&gt;`_</v>
+        <f t="shared" si="1"/>
+        <v>`855025008 &lt;https://www.digikey.com/products/en?keywords=WM3547CT-ND&gt;`_</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="8">
         <v>855025008</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="H7" s="5">
         <v>1</v>
       </c>
       <c r="I7" s="12">
-        <f>C7/H7</f>
+        <f t="shared" si="0"/>
         <v>1.88</v>
       </c>
     </row>
@@ -886,27 +895,27 @@
         <v>1</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="5">
         <v>3.53</v>
       </c>
       <c r="D8" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>`ROF-78E3.3-0.5SMD-R &lt;https://www.digikey.com/product-detail/en/ROF-78E3.3-0.5SMD-R/945-1689-1-ND/3593418/?itemSeq=270101613&gt;`_</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H8" s="5">
         <v>1</v>
       </c>
       <c r="I8" s="12">
-        <f>C8/H8</f>
+        <f t="shared" si="0"/>
         <v>3.53</v>
       </c>
     </row>
@@ -915,27 +924,27 @@
         <v>13</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C9" s="5">
         <v>2.36</v>
       </c>
       <c r="D9" s="5" t="str">
-        <f t="shared" ref="D9:D21" si="1">CONCATENATE("`",F9," &lt;",G9,"&gt;`_")</f>
+        <f t="shared" ref="D9:D21" si="2">CONCATENATE("`",F9," &lt;",G9,"&gt;`_")</f>
         <v>`OSTVN08A150 &lt;https://www.digikey.com/product-detail/en/OSTVN08A150/ED10566-ND/1588868/?itemSeq=270117158&gt;`_</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H9" s="5">
         <v>1</v>
       </c>
       <c r="I9" s="12">
-        <f>C9/H9</f>
+        <f t="shared" si="0"/>
         <v>2.36</v>
       </c>
     </row>
@@ -944,27 +953,27 @@
         <v>1</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C10" s="5">
         <v>0.65</v>
       </c>
       <c r="D10" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>`PPTC081LFBN-RC &lt;https://www.digikey.com/product-detail/en/sullins-connector-solutions/PPTC081LFBN-RC/S7006-ND/810147&gt;`_</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H10" s="5">
         <v>1</v>
       </c>
       <c r="I10" s="12">
-        <f>C10/H10</f>
+        <f t="shared" si="0"/>
         <v>0.65</v>
       </c>
     </row>
@@ -973,27 +982,27 @@
         <v>1</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C11" s="5">
         <v>0.78</v>
       </c>
       <c r="D11" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>`PPTC121LFBN-RC &lt;https://www.digikey.com/product-detail/en/PPTC121LFBN-RC/S6100-ND/807231/?itemSeq=270114950&gt;`_</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H11" s="5">
         <v>1</v>
       </c>
       <c r="I11" s="12">
-        <f>C11/H11</f>
+        <f t="shared" si="0"/>
         <v>0.78</v>
       </c>
     </row>
@@ -1002,57 +1011,57 @@
         <v>1</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C12" s="5">
         <v>0.98</v>
       </c>
       <c r="D12" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>`PPTC161LFBN-RC &lt;https://www.digikey.com/product-detail/en/PPTC161LFBN-RC/S7014-ND/810154/?itemSeq=270114954&gt;`_</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="8" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H12" s="5">
         <v>1</v>
       </c>
       <c r="I12" s="12">
-        <f>C12/H12</f>
+        <f t="shared" si="0"/>
         <v>0.98</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="14">
-        <v>1</v>
+      <c r="A13" s="14" t="s">
+        <v>13</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="10">
-        <v>0.48</v>
+        <v>69</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.79</v>
       </c>
       <c r="D13" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>`CSTCE8M00G55-R0 &lt;https://www.digikey.com/products/en?keywords=490-1195-1-ND&gt;`_</v>
+        <f t="shared" si="2"/>
+        <v>`B3FS-1010P &lt;https://www.digikey.com/products/en?keywords=SW1440CT-ND&gt;`_</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="8" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="H13" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" s="12">
-        <f>C13/H13</f>
-        <v>0.48</v>
+        <f t="shared" ref="I13" si="3">C13/H13</f>
+        <v>0.39500000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -1060,28 +1069,28 @@
         <v>1</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="11">
-        <v>0.28999999999999998</v>
+        <v>18</v>
+      </c>
+      <c r="C14" s="10">
+        <v>0.48</v>
       </c>
       <c r="D14" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>`TC33X-2-103E &lt;https://www.digikey.com/products/en?keywords=tc33x-103ect&gt;`_</v>
+        <f t="shared" si="2"/>
+        <v>`CSTCE8M00G55-R0 &lt;https://www.digikey.com/products/en?keywords=490-1195-1-ND&gt;`_</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="8" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="H14" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I14" s="12">
-        <f>C14/H14</f>
-        <v>2.6363636363636363E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.48</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -1089,56 +1098,54 @@
         <v>2</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C15" s="11">
         <v>0.25</v>
       </c>
       <c r="D15" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>`0.3Ω &lt;https://www.digikey.com/products/en?keywords=p19247ct-nd&gt;`_</v>
+        <f t="shared" si="2"/>
+        <v>`0.3Ω &lt;&gt;`_</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G15" s="5" t="s">
         <v>48</v>
       </c>
+      <c r="G15" s="5"/>
       <c r="H15" s="5">
         <v>1</v>
       </c>
       <c r="I15" s="12">
-        <f>C15/H15</f>
+        <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C16" s="11">
         <v>0.27</v>
       </c>
       <c r="D16" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>`27Ω &lt;https://www.digikey.com/product-detail/en/vishay-beyschlag/MCT06030C2709FP500/749-1631-1-ND/7347939&gt;`_</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="8" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="H16" s="5">
         <v>1</v>
       </c>
       <c r="I16" s="12">
-        <f>C16/H16</f>
+        <f t="shared" si="0"/>
         <v>0.27</v>
       </c>
     </row>
@@ -1147,27 +1154,27 @@
         <v>3</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C17" s="5">
         <v>0.18</v>
       </c>
       <c r="D17" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>`10kΩ &lt;https://www.digikey.com/product-detail/en/vishay-beyschlag/MCT06030C1002FP500/MCT0603-10.0K-CFCT-ND/2607933&gt;`_</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="8" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="H17" s="5">
         <v>11</v>
       </c>
       <c r="I17" s="12">
-        <f>C17/H17</f>
+        <f t="shared" si="0"/>
         <v>1.6363636363636361E-2</v>
       </c>
     </row>
@@ -1176,27 +1183,25 @@
         <v>1</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C18" s="5">
         <v>0.35</v>
       </c>
       <c r="D18" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>`LED &lt;https://www.digikey.com/product-detail/en/LTST-C170KRKT/160-1415-1-ND/386778/?itemSeq=270114655&gt;`_</v>
+        <f t="shared" si="2"/>
+        <v>`LED &lt;&gt;`_</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>31</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G18" s="5"/>
       <c r="H18" s="5">
         <v>1</v>
       </c>
       <c r="I18" s="12">
-        <f>C18/H18</f>
+        <f t="shared" si="0"/>
         <v>0.35</v>
       </c>
     </row>
@@ -1205,61 +1210,61 @@
         <v>1</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" s="5">
         <v>0.62</v>
       </c>
       <c r="D19" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>`100µF &lt;https://www.digikey.com/product-detail/en/nichicon/UCL1V101MCL6GS/493-3953-1-ND/2300380&gt;`_</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="8" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="H19" s="5">
         <v>1</v>
       </c>
       <c r="I19" s="12">
-        <f>C19/H19</f>
+        <f t="shared" si="0"/>
         <v>0.62</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="14">
-        <v>1</v>
+      <c r="A20" s="14" t="s">
+        <v>62</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C20" s="1">
         <v>0.22</v>
       </c>
       <c r="D20" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>`0.1µF &lt;https://www.digikey.com/products/en?keywords=399-7969-1&gt;`_</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="7" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="H20" s="5">
         <v>1</v>
       </c>
       <c r="I20" s="12">
-        <f>C20/H20</f>
+        <f t="shared" si="0"/>
         <v>0.22</v>
       </c>
       <c r="K20" s="13">
-        <f>SUM(I2:I19)</f>
-        <v>52.289393939393939</v>
+        <f>SUM(I2:I21)</f>
+        <v>54.221363636363634</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -1267,24 +1272,38 @@
         <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="C21" s="1">
         <v>0.1</v>
       </c>
       <c r="D21" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>`22nF &lt;https://www.digikey.com/product-detail/en/samsung-electro-mechanics/CL10B223KB8NNWC/1276-2003-1-ND/3890089&gt;`_</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>1</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="F22" s="9"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>1</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
